--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO892123.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO892123.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D2D5A0-660E-4790-A8F0-1A730E1708BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6D060-4CD1-4EDF-B666-EDFB93066CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{44B92937-1EDF-4183-82DA-3A4E71267AEA}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>Waste management services</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>EUR</t>
   </si>
@@ -45,10 +42,16 @@
     <t>CAD</t>
   </si>
   <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
     <t>Beverages and Catering</t>
-  </si>
-  <si>
-    <t>Professional Services</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4135F6-CF68-4B93-8F4E-BCF317288CC0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,163 +412,186 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>291370</v>
+        <v>693215</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>287132</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42749</v>
       </c>
       <c r="D1">
-        <v>57426.400000000001</v>
+        <v>78419</v>
       </c>
       <c r="E1">
-        <v>344558</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42738</v>
+        <v>15683.8</v>
+      </c>
+      <c r="F1">
+        <v>94102.8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>741543</v>
+        <v>245203</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>217538</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42853</v>
       </c>
       <c r="D2">
-        <v>43507.6</v>
+        <v>162687</v>
       </c>
       <c r="E2">
-        <v>261046</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42746</v>
+        <v>32537.4</v>
+      </c>
+      <c r="F2">
+        <v>195224</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>312106</v>
+        <v>436061</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>134182</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42874</v>
       </c>
       <c r="D3">
-        <v>26836.400000000001</v>
+        <v>29792</v>
       </c>
       <c r="E3">
-        <v>161018</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42805</v>
+        <v>5958.4</v>
+      </c>
+      <c r="F3">
+        <v>35750.400000000001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>469996</v>
+        <v>673017</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>110702</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42876</v>
       </c>
       <c r="D4">
-        <v>22140.400000000001</v>
+        <v>265277</v>
       </c>
       <c r="E4">
-        <v>132842</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42942</v>
+        <v>53055.4</v>
+      </c>
+      <c r="F4">
+        <v>318332</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>791077</v>
+        <v>916276</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42935</v>
+      </c>
+      <c r="D5">
+        <v>101636</v>
+      </c>
+      <c r="E5">
+        <v>20327.2</v>
+      </c>
+      <c r="F5">
+        <v>121963</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>110947</v>
-      </c>
-      <c r="D5">
-        <v>22189.4</v>
-      </c>
-      <c r="E5">
-        <v>133136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42969</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>272204</v>
+        <v>481654</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>234076</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42948</v>
       </c>
       <c r="D6">
-        <v>46815.199999999997</v>
+        <v>98885</v>
       </c>
       <c r="E6">
-        <v>280891</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42996</v>
+        <v>19777</v>
+      </c>
+      <c r="F6">
+        <v>118662</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>941026</v>
+        <v>280501</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>294101</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43002</v>
       </c>
       <c r="D7">
-        <v>58820.2</v>
+        <v>181532</v>
       </c>
       <c r="E7">
-        <v>352921</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>43011</v>
+        <v>36306.400000000001</v>
+      </c>
+      <c r="F7">
+        <v>217838</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>303758</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43042</v>
+      </c>
+      <c r="D8">
+        <v>216214</v>
+      </c>
+      <c r="E8">
+        <v>43242.8</v>
+      </c>
+      <c r="F8">
+        <v>259457</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
